--- a/Data/assigned_lucky1_with_avg_time.xlsx
+++ b/Data/assigned_lucky1_with_avg_time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/304b24243408c27c/Desktop/projects/Salesforce/SalesForceProject/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{CAC191AF-F7E3-4988-BB16-8DD148B9F0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C1FD88F-C845-4346-93C8-5A01591923FE}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{CAC191AF-F7E3-4988-BB16-8DD148B9F0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D764209F-B6D5-4C00-9195-C6C4DB7EBDB7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F4911A13-9315-4CED-BA32-813B9C428C6F}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -6605,7 +6604,7 @@
   <dimension ref="A1:F1350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
